--- a/hynds/api_hynds_prod.xlsx
+++ b/hynds/api_hynds_prod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\inflow_infiltration_dashboard\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLewis\Downloads\inflow_infiltration_dashboard\hynds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C8E34-D5BF-408D-8134-E26FB9C823D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787740A6-38FD-40C9-AF6A-89599B1922F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="1080" windowWidth="17640" windowHeight="12510" firstSheet="2" activeTab="3" xr2:uid="{B5AE5DE3-A7B8-4771-B3C7-3B13680330AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B5AE5DE3-A7B8-4771-B3C7-3B13680330AD}"/>
   </bookViews>
   <sheets>
     <sheet name="smartmanhole_site_survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="413">
   <si>
     <t xml:space="preserve">3A1B9F172761F093DB5AE089A36F2346                  </t>
   </si>
@@ -1266,6 +1266,18 @@
   </si>
   <si>
     <t>path_update_datetime</t>
+  </si>
+  <si>
+    <t>stream_name</t>
+  </si>
+  <si>
+    <t>bbnbvn</t>
+  </si>
+  <si>
+    <t>bnbnbvnbvb</t>
+  </si>
+  <si>
+    <t>ffff</t>
   </si>
 </sst>
 </file>
@@ -1479,8 +1491,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>607314</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>426339</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>189214</xdr:rowOff>
     </xdr:to>
@@ -2683,7 +2695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02910F57-7DEE-4B77-A440-9994D3F771FA}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -6122,15 +6134,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A0D89C-94A1-45B8-BB1F-4D9F03879A12}">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>385</v>
       </c>
@@ -6245,8 +6262,11 @@
       <c r="AL1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -6334,8 +6354,11 @@
       <c r="AL2" s="1">
         <v>44620.757059571763</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -6426,8 +6449,12 @@
       <c r="AL3" s="1">
         <v>44620.757071250002</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN3" t="str">
+        <f t="shared" ref="AN3:AN10" si="0">"hynds."&amp;D3&amp;".Y"</f>
+        <v>hynds.7FEFF0.Y</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6518,8 +6545,12 @@
       <c r="AL4" s="1">
         <v>44620.757071284723</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN4" t="str">
+        <f t="shared" si="0"/>
+        <v>hynds.82453A.Y</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -6610,8 +6641,12 @@
       <c r="AL5" s="1">
         <v>44620.757071319444</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN5" t="str">
+        <f t="shared" si="0"/>
+        <v>hynds.8245C5.Y</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6702,8 +6737,12 @@
       <c r="AL6" s="1">
         <v>44620.757071377317</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN6" t="str">
+        <f t="shared" si="0"/>
+        <v>hynds.82457F.Y</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6788,8 +6827,11 @@
       <c r="AL7" s="1">
         <v>44620.757071423614</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6880,8 +6922,12 @@
       <c r="AL8" s="1">
         <v>44620.757071458334</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN8" t="str">
+        <f t="shared" si="0"/>
+        <v>hynds.7FECA4.Y</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6969,8 +7015,11 @@
       <c r="AL9" s="1">
         <v>44620.757071493055</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7060,6 +7109,10 @@
       </c>
       <c r="AL10" s="1">
         <v>44620.757071539352</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="0"/>
+        <v>hynds.7FEE89.Y</v>
       </c>
     </row>
   </sheetData>
